--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -91,28 +91,28 @@
     <t xml:space="preserve">Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner! </t>
   </si>
   <si>
+    <t>Beef Back Ribs</t>
+  </si>
+  <si>
+    <t>3.00 - 3.80 lbs</t>
+  </si>
+  <si>
+    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
+  </si>
+  <si>
+    <t>Beef Bones</t>
+  </si>
+  <si>
+    <t>3.00 - 5.00 lbs</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
+  </si>
+  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Beef Back Ribs</t>
-  </si>
-  <si>
-    <t>3.00 - 3.80 lbs</t>
-  </si>
-  <si>
-    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
-  </si>
-  <si>
-    <t>Beef Bones</t>
-  </si>
-  <si>
-    <t>3.00 - 5.00 lbs</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
   </si>
   <si>
     <t>Beef Flat Iron Steak</t>
@@ -1530,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>16</v>
@@ -1589,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
@@ -1612,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>11</v>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1">
         <v>7.15</v>
@@ -1651,10 +1651,10 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
@@ -1937,7 +1937,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
         <v>9.75</v>
@@ -1964,13 +1964,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2026,13 +2026,13 @@
         <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>10.5</v>
@@ -2206,19 +2206,19 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>59</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>62</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
         <v>24</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -2460,13 +2460,13 @@
         <v>67</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2522,13 +2522,13 @@
         <v>39</v>
       </c>
       <c r="R18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2584,13 +2584,13 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2646,13 +2646,13 @@
         <v>39</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2708,13 +2708,13 @@
         <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2770,13 +2770,13 @@
         <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2832,13 +2832,13 @@
         <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2894,13 +2894,13 @@
         <v>83</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2956,13 +2956,13 @@
         <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>88</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>39</v>
       </c>
       <c r="R27" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T27" t="s">
         <v>24</v>
@@ -3142,7 +3142,7 @@
         <v>92</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>39</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
         <v>24</v>
@@ -3266,13 +3266,13 @@
         <v>97</v>
       </c>
       <c r="R30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>97</v>
       </c>
       <c r="R31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3390,13 +3390,13 @@
         <v>101</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3452,13 +3452,13 @@
         <v>104</v>
       </c>
       <c r="R33" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>107</v>
       </c>
       <c r="R34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1">
         <v>16.9</v>
@@ -3576,7 +3576,7 @@
         <v>111</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S35">
         <v>99</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1">
         <v>30.88</v>
@@ -3638,7 +3638,7 @@
         <v>111</v>
       </c>
       <c r="R36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1">
         <v>11.05</v>
@@ -3700,7 +3700,7 @@
         <v>111</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S37">
         <v>174</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" s="1">
         <v>16.25</v>
@@ -3762,7 +3762,7 @@
         <v>118</v>
       </c>
       <c r="R38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1">
         <v>9.1</v>
@@ -3824,7 +3824,7 @@
         <v>118</v>
       </c>
       <c r="R39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" s="1">
         <v>13</v>
@@ -3886,13 +3886,13 @@
         <v>124</v>
       </c>
       <c r="R40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="1">
         <v>10.72</v>
@@ -3948,7 +3948,7 @@
         <v>127</v>
       </c>
       <c r="R41" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1">
         <v>10.72</v>
@@ -4010,7 +4010,7 @@
         <v>129</v>
       </c>
       <c r="R42" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J43" s="1">
         <v>10.72</v>
@@ -4072,7 +4072,7 @@
         <v>131</v>
       </c>
       <c r="R43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>126</v>
       </c>
       <c r="F44" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2">
         <v>14</v>
@@ -4107,16 +4107,16 @@
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1">
-        <v>15.6</v>
+        <v>11.05</v>
       </c>
       <c r="K44" s="1">
-        <v>21.53</v>
+        <v>15.25</v>
       </c>
       <c r="L44" s="1">
-        <v>24.02</v>
+        <v>17.02</v>
       </c>
       <c r="M44" s="3">
         <v>0.38</v>
@@ -4134,7 +4134,7 @@
         <v>133</v>
       </c>
       <c r="R44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1">
         <v>10.72</v>
@@ -4196,7 +4196,7 @@
         <v>135</v>
       </c>
       <c r="R45" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J46" s="1">
         <v>13</v>
@@ -4258,7 +4258,7 @@
         <v>137</v>
       </c>
       <c r="R46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1">
         <v>13</v>
@@ -4355,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J48" s="1">
         <v>13</v>
@@ -4382,7 +4382,7 @@
         <v>140</v>
       </c>
       <c r="R48" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J49" s="1">
         <v>13</v>
@@ -4444,13 +4444,13 @@
         <v>142</v>
       </c>
       <c r="R49" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J50" s="1">
         <v>9.75</v>
@@ -4506,7 +4506,7 @@
         <v>145</v>
       </c>
       <c r="R50" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" s="1">
         <v>13</v>
@@ -4568,7 +4568,7 @@
         <v>147</v>
       </c>
       <c r="R51" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J52" s="1">
         <v>13</v>
@@ -4630,7 +4630,7 @@
         <v>149</v>
       </c>
       <c r="R52" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>151</v>
       </c>
       <c r="F53" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G53" s="2">
         <v>12</v>
@@ -4665,16 +4665,16 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J53" s="1">
-        <v>11.05</v>
+        <v>15.6</v>
       </c>
       <c r="K53" s="1">
-        <v>15.25</v>
+        <v>21.53</v>
       </c>
       <c r="L53" s="1">
-        <v>17.02</v>
+        <v>24.02</v>
       </c>
       <c r="M53" s="3">
         <v>0.38</v>
@@ -4692,13 +4692,13 @@
         <v>133</v>
       </c>
       <c r="R53" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J54" s="1">
         <v>13</v>
@@ -4754,7 +4754,7 @@
         <v>154</v>
       </c>
       <c r="R54" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J55" s="1">
         <v>6.5</v>
@@ -4816,7 +4816,7 @@
         <v>154</v>
       </c>
       <c r="R55" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1">
         <v>9.75</v>
@@ -4878,13 +4878,13 @@
         <v>158</v>
       </c>
       <c r="R56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J57" s="1">
         <v>6.5</v>
@@ -4940,13 +4940,13 @@
         <v>158</v>
       </c>
       <c r="R57" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4975,7 +4975,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J58" s="1">
         <v>10.4</v>
@@ -5002,7 +5002,7 @@
         <v>161</v>
       </c>
       <c r="R58" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S58">
         <v>50</v>
@@ -5037,7 +5037,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J59" s="1">
         <v>6.5</v>
@@ -5064,10 +5064,10 @@
         <v>39</v>
       </c>
       <c r="R59" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T59" t="s">
         <v>24</v>
@@ -5099,7 +5099,7 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J60" s="1">
         <v>14.3</v>
@@ -5126,13 +5126,13 @@
         <v>164</v>
       </c>
       <c r="R60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5161,7 +5161,7 @@
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J61" s="1">
         <v>13</v>
@@ -5188,7 +5188,7 @@
         <v>166</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>169</v>
       </c>
       <c r="R62" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
         <v>2.5</v>
@@ -5312,7 +5312,7 @@
         <v>171</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>174</v>
       </c>
       <c r="R64" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>174</v>
       </c>
       <c r="R65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5560,10 +5560,10 @@
         <v>39</v>
       </c>
       <c r="R67" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T67" t="s">
         <v>24</v>
@@ -5622,7 +5622,7 @@
         <v>183</v>
       </c>
       <c r="R68" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5684,13 +5684,13 @@
         <v>185</v>
       </c>
       <c r="R69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>187</v>
       </c>
       <c r="R70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>190</v>
       </c>
       <c r="R71" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>193</v>
       </c>
       <c r="R72" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" s="1">
         <v>13</v>
@@ -5926,19 +5926,19 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q73" t="s">
         <v>39</v>
       </c>
       <c r="R73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5994,13 +5994,13 @@
         <v>39</v>
       </c>
       <c r="R74" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S74">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6056,13 +6056,13 @@
         <v>198</v>
       </c>
       <c r="R75" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J76" s="1">
         <v>7.8</v>
@@ -6118,7 +6118,7 @@
         <v>202</v>
       </c>
       <c r="R76" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0.5</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J77" s="1">
         <v>4.55</v>
@@ -6180,7 +6180,7 @@
         <v>202</v>
       </c>
       <c r="R77" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -6242,13 +6242,13 @@
         <v>208</v>
       </c>
       <c r="R78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
         <v>210</v>
       </c>
       <c r="R79" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>212</v>
       </c>
       <c r="R80" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <v>2.5</v>
@@ -6428,7 +6428,7 @@
         <v>214</v>
       </c>
       <c r="R81" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -6490,13 +6490,13 @@
         <v>39</v>
       </c>
       <c r="R82" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>218</v>
       </c>
       <c r="R83" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>221</v>
       </c>
       <c r="R84" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>224</v>
       </c>
       <c r="R85" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>224</v>
       </c>
       <c r="R86" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="1">
         <v>12</v>
@@ -6794,19 +6794,19 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q87" t="s">
         <v>39</v>
       </c>
       <c r="R87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
         <v>230</v>
       </c>
       <c r="R88" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -6924,13 +6924,13 @@
         <v>233</v>
       </c>
       <c r="R89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J90" s="1">
         <v>6.17</v>
@@ -6986,13 +6986,13 @@
         <v>237</v>
       </c>
       <c r="R90" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
         <v>0.5</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J91" s="1">
         <v>6.17</v>
@@ -7048,13 +7048,13 @@
         <v>240</v>
       </c>
       <c r="R91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7083,7 +7083,7 @@
         <v>0.5</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J92" s="1">
         <v>7.8</v>
@@ -7110,7 +7110,7 @@
         <v>242</v>
       </c>
       <c r="R92" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -7172,13 +7172,13 @@
         <v>245</v>
       </c>
       <c r="R93" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7228,19 +7228,19 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q94" t="s">
         <v>248</v>
       </c>
       <c r="R94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7296,13 +7296,13 @@
         <v>251</v>
       </c>
       <c r="R95" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -7358,13 +7358,13 @@
         <v>39</v>
       </c>
       <c r="R96" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -7420,13 +7420,13 @@
         <v>256</v>
       </c>
       <c r="R97" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7482,13 +7482,13 @@
         <v>256</v>
       </c>
       <c r="R98" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7544,13 +7544,13 @@
         <v>256</v>
       </c>
       <c r="R99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7606,13 +7606,13 @@
         <v>256</v>
       </c>
       <c r="R100" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7662,19 +7662,19 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q101" t="s">
         <v>265</v>
       </c>
       <c r="R101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7724,19 +7724,19 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q102" t="s">
         <v>265</v>
       </c>
       <c r="R102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7792,13 +7792,13 @@
         <v>265</v>
       </c>
       <c r="R103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7827,7 +7827,7 @@
         <v>3.8</v>
       </c>
       <c r="I104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J104" s="1">
         <v>12.03</v>
@@ -7854,13 +7854,13 @@
         <v>272</v>
       </c>
       <c r="R104" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J105" s="1">
         <v>7.8</v>
@@ -7916,13 +7916,13 @@
         <v>275</v>
       </c>
       <c r="R105" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S105">
         <v>2</v>
       </c>
       <c r="T105" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J106" s="1">
         <v>9.43</v>
@@ -7978,7 +7978,7 @@
         <v>278</v>
       </c>
       <c r="R106" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J107" s="1">
         <v>11.38</v>
@@ -8040,7 +8040,7 @@
         <v>280</v>
       </c>
       <c r="R107" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J108" s="1">
         <v>12.68</v>
@@ -8102,7 +8102,7 @@
         <v>282</v>
       </c>
       <c r="R108" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J109" s="1">
         <v>10.08</v>
@@ -8164,7 +8164,7 @@
         <v>284</v>
       </c>
       <c r="R109" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J110" s="1">
         <v>12.68</v>
@@ -8226,7 +8226,7 @@
         <v>286</v>
       </c>
       <c r="R110" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J111" s="1">
         <v>12.68</v>
@@ -8288,7 +8288,7 @@
         <v>288</v>
       </c>
       <c r="R111" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J112" s="1">
         <v>13.97</v>
@@ -8350,13 +8350,13 @@
         <v>290</v>
       </c>
       <c r="R112" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J113" s="1">
         <v>13.97</v>
@@ -8406,19 +8406,19 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q113" t="s">
         <v>292</v>
       </c>
       <c r="R113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J114" s="1">
         <v>10.72</v>
@@ -8474,7 +8474,7 @@
         <v>295</v>
       </c>
       <c r="R114" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J115" s="1">
         <v>13</v>
@@ -8536,7 +8536,7 @@
         <v>297</v>
       </c>
       <c r="R115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J116" s="1">
         <v>13.97</v>
@@ -8598,13 +8598,13 @@
         <v>300</v>
       </c>
       <c r="R116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J117" s="1">
         <v>11.7</v>
@@ -8660,7 +8660,7 @@
         <v>303</v>
       </c>
       <c r="R117" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J118" s="1">
         <v>11.7</v>
@@ -8722,13 +8722,13 @@
         <v>305</v>
       </c>
       <c r="R118" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J119" s="1">
         <v>13</v>
@@ -8784,7 +8784,7 @@
         <v>307</v>
       </c>
       <c r="R119" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J120" s="1">
         <v>11.7</v>
@@ -8846,7 +8846,7 @@
         <v>309</v>
       </c>
       <c r="R120" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J121" s="1">
         <v>13</v>
@@ -8908,7 +8908,7 @@
         <v>312</v>
       </c>
       <c r="R121" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J122" s="1">
         <v>5.85</v>
@@ -8970,7 +8970,7 @@
         <v>314</v>
       </c>
       <c r="R122" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J123" s="1">
         <v>12.68</v>
@@ -9032,7 +9032,7 @@
         <v>316</v>
       </c>
       <c r="R123" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J124" s="1">
         <v>13</v>
@@ -9094,7 +9094,7 @@
         <v>318</v>
       </c>
       <c r="R124" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J125" s="1">
         <v>10.72</v>
@@ -9156,7 +9156,7 @@
         <v>320</v>
       </c>
       <c r="R125" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0.5</v>
       </c>
       <c r="I126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J126" s="1">
         <v>7.15</v>
@@ -9218,13 +9218,13 @@
         <v>322</v>
       </c>
       <c r="R126" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S126">
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J127" s="1">
         <v>11.05</v>
@@ -9280,7 +9280,7 @@
         <v>324</v>
       </c>
       <c r="R127" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J128" s="1">
         <v>12.68</v>
@@ -9342,7 +9342,7 @@
         <v>326</v>
       </c>
       <c r="R128" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J129" s="1">
         <v>11.7</v>
@@ -9404,7 +9404,7 @@
         <v>328</v>
       </c>
       <c r="R129" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S129">
         <v>0</v>
